--- a/data/case1/5/V2_2.xlsx
+++ b/data/case1/5/V2_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999998910558807</v>
+        <v>0.99999999273189988</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99564188321875813</v>
+        <v>0.9927553246069557</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97599525962229561</v>
+        <v>0.97107650281558056</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9695938516306255</v>
+        <v>0.96095820562386169</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.96371264206376162</v>
+        <v>0.95124068021528729</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.94979865245585615</v>
+        <v>0.92734985993311303</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.94539482110435347</v>
+        <v>0.92575228307933943</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.93997397572276897</v>
+        <v>0.92422099241327693</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.93440433757937247</v>
+        <v>0.9255339419277766</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.92975836716631144</v>
+        <v>0.92782001582896734</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.92916544145690949</v>
+        <v>0.92829634835634445</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.92829292725999046</v>
+        <v>0.9255165682466886</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.92583762926595314</v>
+        <v>0.91422965683109236</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.92550085584254593</v>
+        <v>0.91006237024434655</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.92656409296199749</v>
+        <v>0.90747092679941765</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.92842523840688951</v>
+        <v>0.90496446448529122</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.94418921946540868</v>
+        <v>0.90125659055898577</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.94308034635136284</v>
+        <v>0.90014768995765149</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99458870481073691</v>
+        <v>0.98896659261537101</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98747187076968368</v>
+        <v>0.98184954099625865</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98607341832725681</v>
+        <v>0.98045106767183832</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98480891838894702</v>
+        <v>0.97918657028452194</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96895995952146996</v>
+        <v>0.9640407785155608</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95593855394335603</v>
+        <v>0.95101895442310425</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.9494814863915173</v>
+        <v>0.94456180672465873</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.94936271857008969</v>
+        <v>0.92369274596818196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.94901052258741414</v>
+        <v>0.91884409252079158</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.93434435496291179</v>
+        <v>0.89736435983527874</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.92411994902791195</v>
+        <v>0.88209052291489276</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.92001111004683001</v>
+        <v>0.87551963892766438</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.91879924389076562</v>
+        <v>0.86786554428256046</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.91712002303642193</v>
+        <v>0.8661862302986949</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.91660002980182353</v>
+        <v>0.86566623293025624</v>
       </c>
     </row>
   </sheetData>
